--- a/Project Documents/User Stories.xlsx
+++ b/Project Documents/User Stories.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DFC222-BEA4-428C-AF70-11DEBA6E5AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0404D50D-A31D-42BD-953E-20C99AA85C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADED7C77-BF51-433E-80A6-964B923CBDA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ADED7C77-BF51-433E-80A6-964B923CBDA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="100">
   <si>
     <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +294,263 @@
   </si>
   <si>
     <t>have access to different sound effects for different actions, such as firing a cannon or collecting a power-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 1 Completed User Stories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Tank Movement
+Given: The player is on the game screen
+When: The player presses the arrow keys on the keyboard to control the tank's movement
+Then: The tank moves in the direction of the arrow key that was pressed.</t>
+  </si>
+  <si>
+    <t>Scenario: Firing the Cannon
+Given: The player is on the game screen
+When: The player presses the spacebar on the keyboard to fire the cannon
+Then: The tank fires a shell in the direction it is facing.</t>
+  </si>
+  <si>
+    <t>Scenario: Single-player mode
+Given: The player is on the game screen
+When: The player selects the Game Start option
+Then: The game starts in single-player mode, with AI-controlled tanks as enemies and allies.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria
+(format: use keywords Given, When, Then)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Enemies and Allies
+Given: The player is on the game screen
+When: The game starts
+Then: Enemies and allies are present on the battlefield, and the player can differentiate between them.</t>
+  </si>
+  <si>
+    <t>Scenario: Scoreboard
+Given: The player is on the game screen
+When: The game is in progress
+Then: The scoreboard displays the player's score</t>
+  </si>
+  <si>
+    <t>Scenario: Multiple Lives
+Given: The game is in progress
+When: The player's tank takes damage
+Then: The tank loses a life, and the player can continue playing with the remaining lives.</t>
+  </si>
+  <si>
+    <t>Scenario: Different Types of Enemies
+Given: The game is in progress
+When: The player encounters different types of enemy tanks
+Then: The player experiences a variety of gameplay challenges.</t>
+  </si>
+  <si>
+    <t>Scenario: Lives Status
+Given: The game is in progress
+When: The player's tank takes damage
+Then: The lives status of the tank is updated to reflect the remaining health.</t>
+  </si>
+  <si>
+    <t>Scenario: Enemy respawn
+Given: The player starts a game
+When: The player destroys an enemy tank
+Then: A new enemy tank immediately appears on the battlefield
+When: The player's ally tank is destroyed
+Then: A new ally tank immediately appears on the battlefield</t>
+  </si>
+  <si>
+    <t>US 10</t>
+  </si>
+  <si>
+    <t>Player/ Customer</t>
+  </si>
+  <si>
+    <t>play on different difficulty levels</t>
+  </si>
+  <si>
+    <t>I can challenge myself and get different experiences.</t>
+  </si>
+  <si>
+    <t>Scenario: Difficulty Levels
+Given: The player is on the game screen
+When: The player selects a difficulty level
+Then: The game's difficulty is changed, and the player experiences a different level of challenge.</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Shell Scoring
+Given: The player's tank fires a shell
+When: The shell hits an enemy tank
+Then: The player scores points. If the shell hits a friendly tank, the player loses points.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 2 Backlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Choosing a Map
+Given: The player is on the game screen
+When: The player selects the map selection option
+Then: A list of available maps is displayed, and the player can select one to start the game on that map.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acceptance Criteria
+(format: use keywords </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Language Options
+Given: The player is on the game screen
+When: The language selection option is available
+Then: The player can select a language preference, and the game's language will be changed accordingly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Pausing the Game
+Given: The game is in progress
+When: The player presses the pause button
+Then: The game is paused, and the player can resume playing or exit the game.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Difficulty Levels
+Given: The player is on the game screen
+When: The player selects a difficulty level
+Then: The game's difficulty is changed, and the player experiences a different level of challenge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Graphics Customization
+Given: The player is on the game screen
+When: The graphics customization option is available
+Then: The player can adjust the game's graphics settings, such as resolution and quality.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Power-Ups
+Given: The player is on the game screen
+When: The player collects a power-up
+Then: The player's tank gains a benefit, such as increased health or speed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Obstacle Hiding
+Given: The player's tank is near an obstacle, such as a wall or rock
+When: The player presses the hide button
+Then: The tank moves behind the obstacle and is hidden from enemy fire.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Tank Skin Customization
+Given: The user is on the main menu
+When: The user selects the "customize tank" option
+Then: The system displays the customization options, including skins and colors
+And: The user can select a skin and color
+And: The system applies the selected skin and color to the tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access to Different Types of Tanks
+Scenario: Tank Selection
+Given: The user is on the main menu
+When: The user selects the "choose tank" option
+Then: The system displays the tank options, including their stats such as speed, health, and firepower
+And: The user can select a tank that suits their playstyle the best
+And: The system applies the selected tank and its stats to the gameplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario: Sound Effect Customization
+Given: The user is on the main menu
+When: The user selects the "sound options" option
+Then: The system displays the sound options, including different sound effects for different actions
+And: The user can select a sound effect for each action
+And: The system applies the selected sound effects to the gameplay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +601,83 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +690,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -365,33 +741,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,868 +1292,914 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="1" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="1" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="1" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="1" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="1" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="1" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="1" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="1" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="1" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="1" t="s">
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="H37:L37"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="H23:L23"/>
@@ -1606,68 +2216,874 @@
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H43:L43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="1.9685039370078741" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B31E90E-7222-4588-8699-229E38265450}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N13" sqref="A12:N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="12" max="12" width="27.375" customWidth="1"/>
+    <col min="13" max="13" width="27.375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:19" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="114" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="114" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="171" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" s="4" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A07C78-7EFD-4140-B1CF-B1BB439C499A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="45.25" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+    </row>
+    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="173.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="114" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="38">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project Documents/User Stories.xlsx
+++ b/Project Documents/User Stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691&amp;692\CS691 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0404D50D-A31D-42BD-953E-20C99AA85C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36B9557-801F-4662-AE03-616F94FFBB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ADED7C77-BF51-433E-80A6-964B923CBDA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADED7C77-BF51-433E-80A6-964B923CBDA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="103">
   <si>
     <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,6 +551,18 @@
 Then: The system displays the sound options, including different sound effects for different actions
 And: The user can select a sound effect for each action
 And: The system applies the selected sound effects to the gameplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my shells to score differently when they hit enemy forces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,79 +894,79 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1276,8 +1288,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:L16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1292,21 +1304,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
@@ -1316,20 +1328,20 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1344,20 +1356,20 @@
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1372,20 +1384,20 @@
       <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1400,20 +1412,20 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1428,24 +1440,26 @@
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1454,20 +1468,20 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
+      <c r="C7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1482,20 +1496,20 @@
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1510,20 +1524,20 @@
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1538,24 +1552,26 @@
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -1564,24 +1580,26 @@
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1590,24 +1608,26 @@
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -1616,24 +1636,26 @@
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
+      <c r="C13" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -1642,20 +1664,20 @@
       <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1670,24 +1692,26 @@
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1696,24 +1720,26 @@
       <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -1722,20 +1748,20 @@
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1750,24 +1776,26 @@
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -1776,24 +1804,26 @@
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -1802,24 +1832,26 @@
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -1828,20 +1860,20 @@
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1856,291 +1888,364 @@
       <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
@@ -2157,77 +2262,6 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H43:L43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="1.9685039370078741" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2239,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B31E90E-7222-4588-8699-229E38265450}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="A12:N13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2254,22 +2288,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:19" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -2278,20 +2312,20 @@
       <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="6" t="s">
         <v>74</v>
       </c>
@@ -2306,20 +2340,20 @@
       <c r="B3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="24" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="7" t="s">
         <v>71</v>
       </c>
@@ -2334,20 +2368,20 @@
       <c r="B4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="24" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
       <c r="M4" s="7" t="s">
         <v>72</v>
       </c>
@@ -2362,20 +2396,20 @@
       <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="24" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="7" t="s">
         <v>73</v>
       </c>
@@ -2390,20 +2424,20 @@
       <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="7" t="s">
         <v>75</v>
       </c>
@@ -2418,20 +2452,20 @@
       <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="24" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="7" t="s">
         <v>76</v>
       </c>
@@ -2446,20 +2480,20 @@
       <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="7" t="s">
         <v>77</v>
       </c>
@@ -2474,20 +2508,20 @@
       <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="24" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="7" t="s">
         <v>78</v>
       </c>
@@ -2502,20 +2536,20 @@
       <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="24" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="7" t="s">
         <v>79</v>
       </c>
@@ -2530,20 +2564,20 @@
       <c r="B11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="9" t="s">
         <v>80</v>
       </c>
@@ -2558,20 +2592,20 @@
       <c r="B12" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="7" t="s">
         <v>85</v>
       </c>
@@ -2587,20 +2621,20 @@
       <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="34" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="10" t="s">
         <v>87</v>
       </c>
@@ -2615,16 +2649,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H4:L4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="H8:L8"/>
@@ -2640,6 +2664,16 @@
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2653,8 +2687,8 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:O13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2664,23 +2698,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2689,21 +2723,21 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="43" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -2714,364 +2748,350 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="8" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="44" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="38">
+      <c r="O3" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="44" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="44" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="44" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="44" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="44" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="44" t="s">
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="44" t="s">
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="44" t="s">
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="173.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="44" t="s">
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="N12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="114" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="44" t="s">
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="20">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
@@ -3079,8 +3099,22 @@
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Documents/User Stories.xlsx
+++ b/Project Documents/User Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2023\CS691&amp;692\CS691 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36B9557-801F-4662-AE03-616F94FFBB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886873D4-37EB-421D-9B33-0B36561C94DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADED7C77-BF51-433E-80A6-964B923CBDA3}"/>
+    <workbookView xWindow="3885" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{ADED7C77-BF51-433E-80A6-964B923CBDA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="104">
   <si>
     <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,6 +563,10 @@
   </si>
   <si>
     <t>Not Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>want enemies to respawn constantly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,21 +916,30 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -948,26 +961,17 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,7 +1293,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1304,21 +1308,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
@@ -1328,20 +1332,20 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1356,20 +1360,20 @@
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
       <c r="M3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1384,20 +1388,20 @@
       <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1412,20 +1416,20 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1440,20 +1444,20 @@
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="4" t="s">
         <v>29</v>
       </c>
@@ -1468,20 +1472,20 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1496,20 +1500,20 @@
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1524,20 +1528,20 @@
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1552,20 +1556,20 @@
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1580,20 +1584,20 @@
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="4" t="s">
         <v>29</v>
       </c>
@@ -1608,20 +1612,20 @@
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1636,20 +1640,20 @@
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1664,20 +1668,20 @@
       <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1692,20 +1696,20 @@
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="4" t="s">
         <v>102</v>
       </c>
@@ -1720,20 +1724,20 @@
       <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1748,20 +1752,20 @@
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1776,20 +1780,20 @@
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1804,20 +1808,20 @@
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1832,20 +1836,20 @@
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1860,20 +1864,20 @@
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28" t="s">
+      <c r="C21" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1888,20 +1892,20 @@
       <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="4" t="s">
         <v>29</v>
       </c>
@@ -1910,283 +1914,330 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="H37:L37"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="H23:L23"/>
@@ -2203,65 +2254,18 @@
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H43:L43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="1.9685039370078741" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2288,22 +2292,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:19" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -2312,20 +2316,20 @@
       <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="6" t="s">
         <v>74</v>
       </c>
@@ -2340,20 +2344,20 @@
       <c r="B3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="7" t="s">
         <v>71</v>
       </c>
@@ -2368,20 +2372,20 @@
       <c r="B4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="7" t="s">
         <v>72</v>
       </c>
@@ -2396,20 +2400,20 @@
       <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="38" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="7" t="s">
         <v>73</v>
       </c>
@@ -2424,20 +2428,20 @@
       <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="38" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="7" t="s">
         <v>75</v>
       </c>
@@ -2452,20 +2456,20 @@
       <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="38" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="7" t="s">
         <v>76</v>
       </c>
@@ -2480,20 +2484,20 @@
       <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="38" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="7" t="s">
         <v>77</v>
       </c>
@@ -2508,20 +2512,20 @@
       <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="38" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="7" t="s">
         <v>78</v>
       </c>
@@ -2536,20 +2540,20 @@
       <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="38" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="7" t="s">
         <v>79</v>
       </c>
@@ -2564,20 +2568,20 @@
       <c r="B11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="9" t="s">
         <v>80</v>
       </c>
@@ -2592,20 +2596,20 @@
       <c r="B12" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
       <c r="M12" s="7" t="s">
         <v>85</v>
       </c>
@@ -2621,20 +2625,20 @@
       <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="37" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
       <c r="M13" s="10" t="s">
         <v>87</v>
       </c>
@@ -2649,6 +2653,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="H8:L8"/>
@@ -2665,15 +2678,6 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2698,23 +2702,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2723,20 +2727,20 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
@@ -2754,20 +2758,20 @@
       <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
       <c r="M3" s="25" t="s">
         <v>89</v>
       </c>
@@ -2785,20 +2789,20 @@
       <c r="B4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="25" t="s">
         <v>91</v>
       </c>
@@ -2816,20 +2820,20 @@
       <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="25" t="s">
         <v>92</v>
       </c>
@@ -2847,20 +2851,20 @@
       <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="25" t="s">
         <v>93</v>
       </c>
@@ -2878,20 +2882,20 @@
       <c r="B7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="25" t="s">
         <v>87</v>
       </c>
@@ -2909,20 +2913,20 @@
       <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="25" t="s">
         <v>94</v>
       </c>
@@ -2940,20 +2944,20 @@
       <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44" t="s">
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
       <c r="M9" s="25" t="s">
         <v>95</v>
       </c>
@@ -2971,20 +2975,20 @@
       <c r="B10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="25" t="s">
         <v>96</v>
       </c>
@@ -3002,20 +3006,20 @@
       <c r="B11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="25" t="s">
         <v>97</v>
       </c>
@@ -3033,20 +3037,20 @@
       <c r="B12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
       <c r="M12" s="25" t="s">
         <v>98</v>
       </c>
@@ -3064,20 +3068,20 @@
       <c r="B13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="25" t="s">
         <v>99</v>
       </c>
@@ -3090,31 +3094,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
